--- a/visualisasi data.xlsx
+++ b/visualisasi data.xlsx
@@ -8,13 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dimas Fajar\Documents\Semester 2\belajar python\nyoba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{811DDED6-8A4C-4835-8E6A-036D5CE6CE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0249574D-6077-4521-9A0D-50DBE5F356BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{E653150C-FC17-40D2-9F6E-A9EE2FAA6C74}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{E653150C-FC17-40D2-9F6E-A9EE2FAA6C74}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
+    <sheet name="Lembar2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lembar1!$K$2:$T$6</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Lembar2!$E$8:$E$16</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Lembar2!$F$7</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Lembar2!$G$7</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Lembar2!$G$8:$G$16</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Lembar2!$H$7</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Lembar2!$H$8:$H$16</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Lembar2!$F$8:$F$16</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Lembar2!$G$7</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Lembar2!$G$8:$G$16</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Lembar2!$H$7</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Lembar2!$H$8:$H$16</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Lembar2!$E$8:$E$16</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Lembar2!$F$7</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Lembar2!$F$8:$F$16</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,8 +53,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Data penjualan</t>
   </si>
@@ -147,6 +187,36 @@
   </si>
   <si>
     <t>Rata-rata sisa pembayaran</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>INTERVAL</t>
+  </si>
+  <si>
+    <t>FREKWENSI</t>
+  </si>
+  <si>
+    <t>JUMLAH</t>
+  </si>
+  <si>
+    <t>PERSENTASE</t>
   </si>
 </sst>
 </file>
@@ -156,7 +226,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$IDR]\ #,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +272,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -275,10 +352,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -289,29 +367,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -321,9 +383,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Persen" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -336,6 +431,1866 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="id-ID"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Lembar2!$H$8:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5D19-49D5-BBF8-20904B1CAA26}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="id-ID"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Lembar2!$H$8:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A34D-4797-AB7E-7204E3070C1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="79"/>
+        <c:overlap val="100"/>
+        <c:axId val="74391791"/>
+        <c:axId val="65210063"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="74391791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65210063"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="65210063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="74391791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Bagan 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CBFC601-813B-2389-BF8D-D886861FB460}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>568325</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>263525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Bagan 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3076607-4305-DB67-2DCA-8A285B4DD8CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -635,10 +2590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66ADE615-01E3-4BFE-B146-5CFAB04F92A1}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="119" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -652,50 +2607,63 @@
     <col min="10" max="10" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-    </row>
-    <row r="2" spans="1:15" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+    </row>
+    <row r="2" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -720,14 +2688,8 @@
       <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="13">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -737,7 +2699,7 @@
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="4">
         <v>5</v>
       </c>
       <c r="E6" s="3">
@@ -748,7 +2710,7 @@
         <v>377500</v>
       </c>
       <c r="G6" s="3">
-        <f>E6*$K$5</f>
+        <f t="shared" ref="G6:G15" si="0">E6*$B$17</f>
         <v>15100</v>
       </c>
       <c r="H6" s="3">
@@ -756,7 +2718,7 @@
         <v>362400</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -766,18 +2728,18 @@
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="4">
         <v>10</v>
       </c>
       <c r="E7" s="3">
         <v>2500</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" ref="F7:F15" si="0">E7*D7</f>
+        <f t="shared" ref="F7:F15" si="1">E7*D7</f>
         <v>25000</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" ref="G7:G15" si="1">E7*$K$5</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="H7" s="3">
@@ -785,7 +2747,7 @@
         <v>24500</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -795,18 +2757,18 @@
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="4">
         <v>12</v>
       </c>
       <c r="E8" s="3">
         <v>30000</v>
       </c>
       <c r="F8" s="3">
+        <f t="shared" si="1"/>
+        <v>360000</v>
+      </c>
+      <c r="G8" s="3">
         <f t="shared" si="0"/>
-        <v>360000</v>
-      </c>
-      <c r="G8" s="3">
-        <f t="shared" si="1"/>
         <v>6000</v>
       </c>
       <c r="H8" s="3">
@@ -814,7 +2776,7 @@
         <v>354000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -824,18 +2786,18 @@
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="4">
         <v>69</v>
       </c>
       <c r="E9" s="3">
         <v>5500</v>
       </c>
       <c r="F9" s="3">
+        <f t="shared" si="1"/>
+        <v>379500</v>
+      </c>
+      <c r="G9" s="3">
         <f t="shared" si="0"/>
-        <v>379500</v>
-      </c>
-      <c r="G9" s="3">
-        <f t="shared" si="1"/>
         <v>1100</v>
       </c>
       <c r="H9" s="3">
@@ -843,7 +2805,7 @@
         <v>378400</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -853,18 +2815,18 @@
       <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="4">
         <v>8</v>
       </c>
       <c r="E10" s="3">
         <v>45000</v>
       </c>
       <c r="F10" s="3">
+        <f t="shared" si="1"/>
+        <v>360000</v>
+      </c>
+      <c r="G10" s="3">
         <f t="shared" si="0"/>
-        <v>360000</v>
-      </c>
-      <c r="G10" s="3">
-        <f t="shared" si="1"/>
         <v>9000</v>
       </c>
       <c r="H10" s="3">
@@ -872,7 +2834,7 @@
         <v>351000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>6</v>
       </c>
@@ -882,18 +2844,18 @@
       <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="4">
         <v>14</v>
       </c>
       <c r="E11" s="3">
         <v>1500</v>
       </c>
       <c r="F11" s="3">
+        <f t="shared" si="1"/>
+        <v>21000</v>
+      </c>
+      <c r="G11" s="3">
         <f t="shared" si="0"/>
-        <v>21000</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="H11" s="3">
@@ -901,7 +2863,7 @@
         <v>20700</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>7</v>
       </c>
@@ -911,18 +2873,18 @@
       <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="4">
         <v>10</v>
       </c>
       <c r="E12" s="3">
         <v>1000</v>
       </c>
       <c r="F12" s="3">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="G12" s="3">
         <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="G12" s="3">
-        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="H12" s="3">
@@ -930,7 +2892,7 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>8</v>
       </c>
@@ -940,18 +2902,18 @@
       <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="4">
         <v>4</v>
       </c>
       <c r="E13" s="3">
         <v>500</v>
       </c>
       <c r="F13" s="3">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="G13" s="3">
         <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="G13" s="3">
-        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H13" s="3">
@@ -959,7 +2921,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>9</v>
       </c>
@@ -969,18 +2931,18 @@
       <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="4">
         <v>2</v>
       </c>
       <c r="E14" s="3">
         <v>15000</v>
       </c>
       <c r="F14" s="3">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+      <c r="G14" s="3">
         <f t="shared" si="0"/>
-        <v>30000</v>
-      </c>
-      <c r="G14" s="3">
-        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="H14" s="3">
@@ -988,7 +2950,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>10</v>
       </c>
@@ -998,18 +2960,18 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="4">
         <v>18</v>
       </c>
       <c r="E15" s="3">
         <v>12500</v>
       </c>
       <c r="F15" s="3">
+        <f t="shared" si="1"/>
+        <v>225000</v>
+      </c>
+      <c r="G15" s="3">
         <f t="shared" si="0"/>
-        <v>225000</v>
-      </c>
-      <c r="G15" s="3">
-        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
       <c r="H15" s="3">
@@ -1017,57 +2979,141 @@
         <v>222500</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F16" s="5" t="s">
+    <row r="16" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="8">
+      <c r="G16" s="14"/>
+      <c r="H16" s="5">
         <f>F6+F7+F8+F9+F10+F11+F12+F13+F14+F15</f>
         <v>1790000</v>
       </c>
     </row>
-    <row r="17" spans="6:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="F17" s="14" t="s">
+    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="8">
+      <c r="G17" s="9"/>
+      <c r="H17" s="5">
         <f>H6+H7+H8+H9+H10+H12+H11+H15+H13+H14</f>
         <v>1752200</v>
       </c>
     </row>
-    <row r="18" spans="6:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="F18" s="14" t="s">
+    <row r="18" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F18" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="8">
+      <c r="G18" s="9"/>
+      <c r="H18" s="5">
         <f>MAX(H6:H15)</f>
         <v>378400</v>
       </c>
     </row>
-    <row r="19" spans="6:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="F19" s="14" t="s">
+    <row r="19" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="8">
+      <c r="G19" s="9"/>
+      <c r="H19" s="5">
         <f>MIN(H6:H15)</f>
         <v>1900</v>
       </c>
     </row>
-    <row r="20" spans="6:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="F20" s="14" t="s">
+    <row r="20" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="8">
+      <c r="G20" s="9"/>
+      <c r="H20" s="5">
         <f>AVERAGE(H6:H15)</f>
         <v>175220</v>
       </c>
     </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="15"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K2:T6">
+    <sortCondition ref="K2:K6"/>
+  </sortState>
   <mergeCells count="8">
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
@@ -1081,4 +3127,329 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE03ABFD-0ED2-45AE-9CA9-FCEC1A273572}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="15">
+        <v>60</v>
+      </c>
+      <c r="B1" s="15">
+        <v>60</v>
+      </c>
+      <c r="C1" s="15">
+        <v>61</v>
+      </c>
+      <c r="D1" s="15">
+        <v>62</v>
+      </c>
+      <c r="E1" s="15">
+        <v>62</v>
+      </c>
+      <c r="F1" s="15">
+        <v>63</v>
+      </c>
+      <c r="G1" s="15">
+        <v>65</v>
+      </c>
+      <c r="H1" s="15">
+        <v>66</v>
+      </c>
+      <c r="I1" s="15">
+        <v>68</v>
+      </c>
+      <c r="J1" s="15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="15">
+        <v>68</v>
+      </c>
+      <c r="B2" s="15">
+        <v>69</v>
+      </c>
+      <c r="C2" s="15">
+        <v>69</v>
+      </c>
+      <c r="D2" s="15">
+        <v>71</v>
+      </c>
+      <c r="E2" s="15">
+        <v>72</v>
+      </c>
+      <c r="F2" s="15">
+        <v>73</v>
+      </c>
+      <c r="G2" s="15">
+        <v>73</v>
+      </c>
+      <c r="H2" s="15">
+        <v>74</v>
+      </c>
+      <c r="I2" s="15">
+        <v>74</v>
+      </c>
+      <c r="J2" s="15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="15">
+        <v>75</v>
+      </c>
+      <c r="B3" s="15">
+        <v>75</v>
+      </c>
+      <c r="C3" s="15">
+        <v>75</v>
+      </c>
+      <c r="D3" s="15">
+        <v>76</v>
+      </c>
+      <c r="E3" s="15">
+        <v>77</v>
+      </c>
+      <c r="F3" s="15">
+        <v>78</v>
+      </c>
+      <c r="G3" s="15">
+        <v>78</v>
+      </c>
+      <c r="H3" s="15">
+        <v>79</v>
+      </c>
+      <c r="I3" s="15">
+        <v>82</v>
+      </c>
+      <c r="J3" s="15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="15">
+        <v>84</v>
+      </c>
+      <c r="B4" s="15">
+        <v>85</v>
+      </c>
+      <c r="C4" s="15">
+        <v>87</v>
+      </c>
+      <c r="D4" s="15">
+        <v>88</v>
+      </c>
+      <c r="E4" s="15">
+        <v>88</v>
+      </c>
+      <c r="F4" s="15">
+        <v>90</v>
+      </c>
+      <c r="G4" s="15">
+        <v>93</v>
+      </c>
+      <c r="H4" s="15">
+        <v>93</v>
+      </c>
+      <c r="I4" s="15">
+        <v>94</v>
+      </c>
+      <c r="J4" s="15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="17">
+        <v>40</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <f>MAX(A1:J4)</f>
+        <v>95</v>
+      </c>
+      <c r="E8" s="19">
+        <v>60</v>
+      </c>
+      <c r="F8" s="19">
+        <v>66</v>
+      </c>
+      <c r="G8" cm="1">
+        <f t="array" ref="G8:G14">FREQUENCY(A1:J4,F8:F13)</f>
+        <v>8</v>
+      </c>
+      <c r="H8" s="21">
+        <f>G8/$G$16</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <f>MIN(A1:J4)</f>
+        <v>60</v>
+      </c>
+      <c r="E9" s="19">
+        <v>67</v>
+      </c>
+      <c r="F9" s="19">
+        <v>73</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="H9" s="21">
+        <f t="shared" ref="H9:H13" si="0">G9/$G$16</f>
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10">
+        <f>B8-B9</f>
+        <v>35</v>
+      </c>
+      <c r="E10" s="19">
+        <v>74</v>
+      </c>
+      <c r="F10" s="19">
+        <v>80</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
+      <c r="H10" s="21">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="16">
+        <f>1+(3.322*LOG(B7))</f>
+        <v>6.3220432911914912</v>
+      </c>
+      <c r="E11" s="19">
+        <v>81</v>
+      </c>
+      <c r="F11" s="19">
+        <v>87</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11" s="21">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <f>B10/B11</f>
+        <v>5.536184804170122</v>
+      </c>
+      <c r="E12" s="19">
+        <v>88</v>
+      </c>
+      <c r="F12" s="19">
+        <v>94</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12" s="21">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E13" s="19">
+        <v>95</v>
+      </c>
+      <c r="F13" s="20">
+        <v>101</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="21">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E16" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16">
+        <f>SUM(G8:G14)</f>
+        <v>40</v>
+      </c>
+      <c r="H16" s="7">
+        <f>SUM(H8:H13)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="A1:AN1">
+    <sortCondition ref="A1:AN1"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E16:F16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>